--- a/ch-database.xlsx
+++ b/ch-database.xlsx
@@ -20,7 +20,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yearly eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cold hardy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heat hardy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
   <si>
     <t xml:space="preserve">ancona</t>
   </si>
@@ -28,27 +49,162 @@
     <t xml:space="preserve">eggs</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mypetchicken.com/catalog/Baby-Chicks/Ancona-p724.aspx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mcmurrayhatchery.com/anconas.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, TIGTC</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">brahma</t>
   </si>
   <si>
     <t xml:space="preserve">dual</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mcmurrayhatchery.com/buff_brahmas.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, TIGTC</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">chantecler</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.backyardchickens.com/reviews/chantecler.10865/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, TIGTC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cornish game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mcmurrayhatchery.com/dark_cornish.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, TIGTC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">fayoumi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mcmurrayhatchery.com/egyptian_fayoumis.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, TIGTC</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -64,6 +220,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,8 +271,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -130,10 +301,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -148,33 +319,144 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="n">
-        <v>150</v>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>200</v>
       </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="https://www.mcmurrayhatchery.com/buff_brahmas.html"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://www.backyardchickens.com/reviews/chantecler.10865/"/>
+    <hyperlink ref="G5" r:id="rId3" display="https://www.mcmurrayhatchery.com/dark_cornish.html"/>
+    <hyperlink ref="G6" r:id="rId4" display="https://www.mcmurrayhatchery.com/egyptian_fayoumis.html"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ch-database.xlsx
+++ b/ch-database.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,6 +31,12 @@
     <t xml:space="preserve">yearly eggs</t>
   </si>
   <si>
+    <t xml:space="preserve">weight f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight m</t>
+  </si>
+  <si>
     <t xml:space="preserve">free range</t>
   </si>
   <si>
@@ -85,25 +91,105 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.backyardchickens.com/reviews/ancona.10882/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> TIGTC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">brahma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dual</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mcmurrayhatchery.com/buff_brahmas.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">, TIGTC</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">brahma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dual</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.mcmurrayhatchery.com/buff_brahmas.html</t>
+    <t xml:space="preserve">chantecler</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.backyardchickens.com/reviews/chantecler.10865/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://livestockconservancy.org/index.php/heritage/internal/chantecler,TIGTC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">cornish game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">meat</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mcmurrayhatchery.com/dark_cornish.html</t>
     </r>
     <r>
       <rPr>
@@ -116,18 +202,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">chantecler</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.backyardchickens.com/reviews/chantecler.10865/</t>
+    <t xml:space="preserve">dorking</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mcmurrayhatchery.com/silver_gray_dorkings.html</t>
     </r>
     <r>
       <rPr>
@@ -140,21 +226,18 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">cornish game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meat</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.mcmurrayhatchery.com/dark_cornish.html</t>
+    <t xml:space="preserve">fayoumi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mcmurrayhatchery.com/egyptian_fayoumis.html</t>
     </r>
     <r>
       <rPr>
@@ -167,18 +250,48 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">fayoumi</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.mcmurrayhatchery.com/egyptian_fayoumis.html</t>
+    <t xml:space="preserve">jersey giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mcmurrayhatchery.com/black_giants.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leghorn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mcmurrayhatchery.com/red_leghorns.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, TIGTC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wyandotte</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://www.mcmurrayhatchery.com/columbian_wyandottes.html</t>
     </r>
     <r>
       <rPr>
@@ -301,10 +414,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -334,128 +447,283 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
+        <v>200</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>1</v>
+      <c r="D3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
+      <c r="D4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>1</v>
+      <c r="D5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
+      <c r="D6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://www.mcmurrayhatchery.com/buff_brahmas.html"/>
-    <hyperlink ref="G4" r:id="rId2" display="https://www.backyardchickens.com/reviews/chantecler.10865/"/>
-    <hyperlink ref="G5" r:id="rId3" display="https://www.mcmurrayhatchery.com/dark_cornish.html"/>
-    <hyperlink ref="G6" r:id="rId4" display="https://www.mcmurrayhatchery.com/egyptian_fayoumis.html"/>
+    <hyperlink ref="I3" r:id="rId1" display="https://www.mcmurrayhatchery.com/buff_brahmas.html"/>
+    <hyperlink ref="I5" r:id="rId2" display="https://www.mcmurrayhatchery.com/dark_cornish.html"/>
+    <hyperlink ref="I6" r:id="rId3" display="https://www.mcmurrayhatchery.com/silver_gray_dorkings.html"/>
+    <hyperlink ref="I7" r:id="rId4" display="https://www.mcmurrayhatchery.com/egyptian_fayoumis.html"/>
+    <hyperlink ref="I8" r:id="rId5" display="https://www.mcmurrayhatchery.com/black_giants.html"/>
+    <hyperlink ref="I9" r:id="rId6" display="https://www.mcmurrayhatchery.com/red_leghorns.html"/>
+    <hyperlink ref="I10" r:id="rId7" display="https://www.mcmurrayhatchery.com/columbian_wyandottes.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
